--- a/document/공연리스트_02.xlsx
+++ b/document/공연리스트_02.xlsx
@@ -5,28 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\문서2\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9757D-6067-4C33-9426-3C59BA500B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FBE1B-1316-4AC8-9DDA-8EC9E1355A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33915" yWindow="2805" windowWidth="25170" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
     <sheet name="아티스트" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="132">
   <si>
     <t>공연코드</t>
   </si>
@@ -187,6 +198,343 @@
   </si>
   <si>
     <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=3266&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지오디 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>god</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 체조경기장 (KSPO DOME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180226_01.422.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스텔라 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181850_01.857.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑스코 서관 5층 컨벤션홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤하 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	윤하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180748_01.943.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 올림픽홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임재범 콘서트 - 부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	임재범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180112_01.436.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-12-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 벡스코(BEXCO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장민호 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장민호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181387_01.813.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-12-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBS부산홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10cm 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181651_01.641.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 SK올림픽핸드볼경기장 (구 펜싱경기장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크러쉬 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크러쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180928_01.354.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민가수 6인의 산타 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_182204_01.243.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학로 굿씨어터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허각, 2F 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181838_01.723.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성신여대 운정그린캠퍼스 대강당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전석132,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전석77,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이엑스 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이엑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181851_01.427.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루스퀘어 마스터카드홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	전석121,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패티김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1035_011.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/51/893/51893_500.jpg?2681194781217524e6d0bf74b0560091/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg?1ae6098218e88aa59e235c89af5a8028/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던말릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/007/89/943/789943_20211019135451_500.jpg?4af120e5008ccaac45f84d52df7afbeb/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/19/06/0400041906_44853_02.416.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송가인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/017/01/869/1701869_20220427134633_500.jpg?99a9a6c59ebef98653aa911b7db8354b/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코요태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/07/0400040907_16003_02656.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥주현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/01/714/1714_2_500.jpg?a2e3c84ca5b09579450f28f315bf701d/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/02/146/2146_500.jpg/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/019/56/564/1956564_20210222095253_500.jpg?bfb5df54d9c8e0c71aa1c5d801f49f9d/melon/resize/416/quality/80/optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손진욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조연호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하동연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김희석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영흠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-12-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/51/893/51893_500.jpg?2681194781217524e6d0bf74b0560091/melon/resize/416/quality/81/optimize</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg?1ae6098218e88aa59e235c89af5a8028/melon/resize/416/quality/81/optimize</t>
+  </si>
+  <si>
+    <t>록/메탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/07/0400040907_16003_02657.gif</t>
+  </si>
+  <si>
+    <t>댄스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝페라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +542,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +568,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,16 +593,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{7E1FE9D9-A0A9-4AB4-9EF1-BA92BB7D0A33}"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,20 +888,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -595,47 +961,366 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44904</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44906</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44919</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44897</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44899</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44905</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44905</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44911</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44913</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44918</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44919</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J13" s="1" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44925</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="1" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="1" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="1" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -647,23 +1332,34 @@
     <hyperlink ref="J5" r:id="rId3" xr:uid="{032DEFB8-10BF-46AA-ADFE-010DE831F8F6}"/>
     <hyperlink ref="J7" r:id="rId4" xr:uid="{7186F6AD-2BC3-471A-8F74-B56AE36F4227}"/>
     <hyperlink ref="J9" r:id="rId5" xr:uid="{A1F111CD-E249-4C7E-ADBD-F5EEF80616FF}"/>
-    <hyperlink ref="J11" r:id="rId6" xr:uid="{2B9E5B35-EAC3-4853-89D9-8FF503FEBD7F}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{240FF615-8A7F-448E-BA32-63CD7D4B78B1}"/>
-    <hyperlink ref="J15" r:id="rId8" xr:uid="{9ECA6B5C-409C-4BB6-85D0-F4FA40ECB98E}"/>
-    <hyperlink ref="J17" r:id="rId9" xr:uid="{C8CD40C5-C5AB-4408-94E3-8614600A750D}"/>
-    <hyperlink ref="J19" r:id="rId10" xr:uid="{94A90FDF-2DDF-4D2A-A977-D0CD47D033B6}"/>
+    <hyperlink ref="J17" r:id="rId6" xr:uid="{2B9E5B35-EAC3-4853-89D9-8FF503FEBD7F}"/>
+    <hyperlink ref="J19" r:id="rId7" xr:uid="{240FF615-8A7F-448E-BA32-63CD7D4B78B1}"/>
+    <hyperlink ref="J21" r:id="rId8" xr:uid="{9ECA6B5C-409C-4BB6-85D0-F4FA40ECB98E}"/>
+    <hyperlink ref="J23" r:id="rId9" xr:uid="{C8CD40C5-C5AB-4408-94E3-8614600A750D}"/>
+    <hyperlink ref="J25" r:id="rId10" xr:uid="{94A90FDF-2DDF-4D2A-A977-D0CD47D033B6}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{CAE31BB9-7929-4511-BAE4-0BA26D3B93FF}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{01575C17-296E-4146-A964-50CD4FB31EFE}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{8FDD6391-2276-4458-86F6-1DD7E1A2FFE2}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{AA3B849E-F380-4A68-9E09-52B89E4977E4}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{1B2B1507-9EFD-42AA-927C-9C7FCD76B3DE}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{27E1CBCD-3C4C-43AC-8C57-BCEECEDF1EFB}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{84AB61E7-6D66-4A0D-AEC2-6EE90A1F8512}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{B0BF8D02-7188-47EF-9E68-02D55010A519}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{02C51FC5-0A49-49E5-97F5-FE574C9317D5}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{FBFBAC0A-FD68-4F8F-AF70-7FED1CFCE152}"/>
+    <hyperlink ref="D11:D16" r:id="rId21" display="http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_182204_01.243.gif" xr:uid="{2E3F634E-15A4-4C11-A49B-39BFBCC51F8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC693940-8471-48E9-B1C7-B4F6DDBFF851}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,7 +1369,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -720,47 +1416,314 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>1958</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>1959</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6">
+        <v>2004</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H7" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>2014</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H9" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>2012</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12">
+        <v>1998</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H11" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>1998</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14">
+        <v>1998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15">
+        <v>1999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16">
+        <v>1988</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" s="1" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17">
+        <v>1989</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18">
+        <v>2017</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="1" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -769,14 +1732,30 @@
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" xr:uid="{C49EA000-D6CA-41AC-9C17-31A1BDFFE05C}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{AC38FE8C-7952-4156-B525-1BE9CB2F0899}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{21CA43F0-B6F1-4940-A612-FA206E6B5A69}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{40176CCD-B664-44C3-AE97-9C3D9293F84E}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{79D36C5A-C69E-4974-A43A-3AECD67728ED}"/>
-    <hyperlink ref="H11" r:id="rId6" xr:uid="{1E7C3CA6-26ED-49FD-82AB-07E1792E3C02}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{0929B4CE-44EF-456D-8C65-79436D6139D3}"/>
-    <hyperlink ref="H15" r:id="rId8" xr:uid="{79408695-6458-4547-9FA8-97679E5F798C}"/>
-    <hyperlink ref="H17" r:id="rId9" xr:uid="{3D6FCE6A-781F-43CC-8272-DBAE3536DCB5}"/>
-    <hyperlink ref="H19" r:id="rId10" xr:uid="{325CC734-5AF5-48F0-9FE9-C201E6069E27}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{21CA43F0-B6F1-4940-A612-FA206E6B5A69}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{40176CCD-B664-44C3-AE97-9C3D9293F84E}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{79D36C5A-C69E-4974-A43A-3AECD67728ED}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{1E7C3CA6-26ED-49FD-82AB-07E1792E3C02}"/>
+    <hyperlink ref="H19" r:id="rId7" xr:uid="{0929B4CE-44EF-456D-8C65-79436D6139D3}"/>
+    <hyperlink ref="H21" r:id="rId8" xr:uid="{79408695-6458-4547-9FA8-97679E5F798C}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{3D6FCE6A-781F-43CC-8272-DBAE3536DCB5}"/>
+    <hyperlink ref="H25" r:id="rId10" xr:uid="{325CC734-5AF5-48F0-9FE9-C201E6069E27}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{60A13DDD-5FE6-448A-BBD1-33CA6A2653FD}"/>
+    <hyperlink ref="D5" r:id="rId12" xr:uid="{981FAE8D-ECE9-44A4-A96A-40E0A62AAA9E}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{CE6DDBF5-D3ED-4109-AAFF-CDB49406A143}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{3D5E2645-D486-4113-B692-34FB8448ADCE}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{93B86B8C-FDA6-4F5E-BD4A-F762CADE9298}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{8F6983D2-3857-4CCD-83E4-31EB17525F01}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{D9F94308-B1B3-4557-AF30-0654725B62FC}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{771BDAC5-F197-4366-A42E-62DD8DFA64D5}"/>
+    <hyperlink ref="D16" r:id="rId19" xr:uid="{C4149631-3815-42DF-92FC-5FBEE2EC4007}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{E7347A4D-3AE9-46A0-9B59-6C5CA2C69259}"/>
+    <hyperlink ref="D4" r:id="rId21" xr:uid="{CEE5D8E8-39ED-4646-B58B-16CD048BEB55}"/>
+    <hyperlink ref="D6" r:id="rId22" display="https://cdnimg.melon.co.kr/cm/artistcrop/images/000/51/893/51893_500.jpg?2681194781217524e6d0bf74b0560091/melon/resize/416/quality/80/optimize" xr:uid="{42CA190C-CF5F-4215-948A-A91967950499}"/>
+    <hyperlink ref="D8" r:id="rId23" display="https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg?1ae6098218e88aa59e235c89af5a8028/melon/resize/416/quality/80/optimize" xr:uid="{3D382182-A299-4776-A401-9F912B587F5C}"/>
+    <hyperlink ref="D13" r:id="rId24" display="http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/07/0400040907_16003_02656.gif" xr:uid="{E68D1C2B-E8A7-4265-B458-9A2A289BC047}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{D7C6A0C0-D94E-45D8-B9E4-30C4B31BCC44}"/>
+    <hyperlink ref="D17" r:id="rId26" xr:uid="{93308FDE-FF1A-449F-B962-F8DBFD3AB5FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/공연리스트_02.xlsx
+++ b/document/공연리스트_02.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\문서2\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09FBE1B-1316-4AC8-9DDA-8EC9E1355A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD45EA-58AD-420A-9F99-2ADD272A2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
     <sheet name="아티스트" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <t>공연코드</t>
   </si>
@@ -333,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>허각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181838_01.723.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,34 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>손진욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조연호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하동연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김희석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영흠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 2022-12-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,40 +466,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발라드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/000/51/893/51893_500.jpg?2681194781217524e6d0bf74b0560091/melon/resize/416/quality/81/optimize</t>
-  </si>
-  <si>
-    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg?1ae6098218e88aa59e235c89af5a8028/melon/resize/416/quality/81/optimize</t>
-  </si>
-  <si>
-    <t>록/메탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인디음악</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/07/0400040907_16003_02657.gif</t>
-  </si>
-  <si>
-    <t>댄스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝페라</t>
+    <t>CCM,발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드,CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디음악,록/메탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스,발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝,발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝페라,CCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현/손진욱/조연호/하동연/김희석/김영흠</t>
+  </si>
+  <si>
+    <t>허각/2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석176,000원
+R석154,000원
+S석132,000원
+A석110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석132,000원
+S석121,000원
+A석99,000원
+B석88,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석132,000원
+R석121,000원
+S석99,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석154,000원
+R석143,000원
+S석132,000원
+A석110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석143,000원
+R석132,000원
+S석121,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석143,000원
+R석132,000원
+S석110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정석 R석132,000원
+지정석 S석121,000원
+스탠딩132,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙합소울</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +555,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -605,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -888,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -960,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -979,11 +991,14 @@
       <c r="G3" t="s">
         <v>49</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -1002,8 +1017,11 @@
       <c r="G4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -1022,11 +1040,14 @@
       <c r="G5" t="s">
         <v>58</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>59</v>
       </c>
@@ -1045,8 +1066,11 @@
       <c r="G6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
@@ -1065,11 +1089,14 @@
       <c r="G7" t="s">
         <v>68</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -1088,8 +1115,11 @@
       <c r="G8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>73</v>
       </c>
@@ -1103,10 +1133,13 @@
         <v>44918</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>72</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
@@ -1117,7 +1150,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>77</v>
@@ -1132,195 +1165,75 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="F11" s="2">
         <v>44920</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>76</v>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="F12" s="2">
-        <v>44920</v>
+        <v>44926</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44918</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44918</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44918</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44918</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44919</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44920</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44925</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44926</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1332,11 +1245,11 @@
     <hyperlink ref="J5" r:id="rId3" xr:uid="{032DEFB8-10BF-46AA-ADFE-010DE831F8F6}"/>
     <hyperlink ref="J7" r:id="rId4" xr:uid="{7186F6AD-2BC3-471A-8F74-B56AE36F4227}"/>
     <hyperlink ref="J9" r:id="rId5" xr:uid="{A1F111CD-E249-4C7E-ADBD-F5EEF80616FF}"/>
-    <hyperlink ref="J17" r:id="rId6" xr:uid="{2B9E5B35-EAC3-4853-89D9-8FF503FEBD7F}"/>
-    <hyperlink ref="J19" r:id="rId7" xr:uid="{240FF615-8A7F-448E-BA32-63CD7D4B78B1}"/>
-    <hyperlink ref="J21" r:id="rId8" xr:uid="{9ECA6B5C-409C-4BB6-85D0-F4FA40ECB98E}"/>
-    <hyperlink ref="J23" r:id="rId9" xr:uid="{C8CD40C5-C5AB-4408-94E3-8614600A750D}"/>
-    <hyperlink ref="J25" r:id="rId10" xr:uid="{94A90FDF-2DDF-4D2A-A977-D0CD47D033B6}"/>
+    <hyperlink ref="J11" r:id="rId6" xr:uid="{2B9E5B35-EAC3-4853-89D9-8FF503FEBD7F}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{240FF615-8A7F-448E-BA32-63CD7D4B78B1}"/>
+    <hyperlink ref="J15" r:id="rId8" xr:uid="{9ECA6B5C-409C-4BB6-85D0-F4FA40ECB98E}"/>
+    <hyperlink ref="J17" r:id="rId9" xr:uid="{C8CD40C5-C5AB-4408-94E3-8614600A750D}"/>
+    <hyperlink ref="J19" r:id="rId10" xr:uid="{94A90FDF-2DDF-4D2A-A977-D0CD47D033B6}"/>
     <hyperlink ref="D3" r:id="rId11" xr:uid="{CAE31BB9-7929-4511-BAE4-0BA26D3B93FF}"/>
     <hyperlink ref="D4" r:id="rId12" xr:uid="{01575C17-296E-4146-A964-50CD4FB31EFE}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{8FDD6391-2276-4458-86F6-1DD7E1A2FFE2}"/>
@@ -1345,21 +1258,20 @@
     <hyperlink ref="D8" r:id="rId16" xr:uid="{27E1CBCD-3C4C-43AC-8C57-BCEECEDF1EFB}"/>
     <hyperlink ref="D9" r:id="rId17" xr:uid="{84AB61E7-6D66-4A0D-AEC2-6EE90A1F8512}"/>
     <hyperlink ref="D10" r:id="rId18" xr:uid="{B0BF8D02-7188-47EF-9E68-02D55010A519}"/>
-    <hyperlink ref="D17" r:id="rId19" xr:uid="{02C51FC5-0A49-49E5-97F5-FE574C9317D5}"/>
-    <hyperlink ref="D18" r:id="rId20" xr:uid="{FBFBAC0A-FD68-4F8F-AF70-7FED1CFCE152}"/>
-    <hyperlink ref="D11:D16" r:id="rId21" display="http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_182204_01.243.gif" xr:uid="{2E3F634E-15A4-4C11-A49B-39BFBCC51F8B}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{02C51FC5-0A49-49E5-97F5-FE574C9317D5}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{FBFBAC0A-FD68-4F8F-AF70-7FED1CFCE152}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC693940-8471-48E9-B1C7-B4F6DDBFF851}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1417,19 +1329,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E3">
         <v>1958</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
@@ -1437,293 +1349,187 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>1959</v>
+        <v>2004</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>93</v>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>95</v>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8">
+        <v>2012</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
-      </c>
-      <c r="F8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>100</v>
+      <c r="B10" t="s">
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E10">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E11">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E12">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13">
-        <v>1998</v>
-      </c>
-      <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14">
-        <v>1998</v>
-      </c>
-      <c r="F14" t="s">
-        <v>130</v>
+      <c r="D13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15">
-        <v>1999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16">
-        <v>1988</v>
-      </c>
-      <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17">
-        <v>1989</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18">
-        <v>2017</v>
-      </c>
-      <c r="F18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1732,30 +1538,24 @@
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" xr:uid="{C49EA000-D6CA-41AC-9C17-31A1BDFFE05C}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{AC38FE8C-7952-4156-B525-1BE9CB2F0899}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{21CA43F0-B6F1-4940-A612-FA206E6B5A69}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{40176CCD-B664-44C3-AE97-9C3D9293F84E}"/>
-    <hyperlink ref="H12" r:id="rId5" xr:uid="{79D36C5A-C69E-4974-A43A-3AECD67728ED}"/>
-    <hyperlink ref="H16" r:id="rId6" xr:uid="{1E7C3CA6-26ED-49FD-82AB-07E1792E3C02}"/>
-    <hyperlink ref="H19" r:id="rId7" xr:uid="{0929B4CE-44EF-456D-8C65-79436D6139D3}"/>
-    <hyperlink ref="H21" r:id="rId8" xr:uid="{79408695-6458-4547-9FA8-97679E5F798C}"/>
-    <hyperlink ref="H23" r:id="rId9" xr:uid="{3D6FCE6A-781F-43CC-8272-DBAE3536DCB5}"/>
-    <hyperlink ref="H25" r:id="rId10" xr:uid="{325CC734-5AF5-48F0-9FE9-C201E6069E27}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{21CA43F0-B6F1-4940-A612-FA206E6B5A69}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{40176CCD-B664-44C3-AE97-9C3D9293F84E}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{79D36C5A-C69E-4974-A43A-3AECD67728ED}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{1E7C3CA6-26ED-49FD-82AB-07E1792E3C02}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{0929B4CE-44EF-456D-8C65-79436D6139D3}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{79408695-6458-4547-9FA8-97679E5F798C}"/>
+    <hyperlink ref="H17" r:id="rId9" xr:uid="{3D6FCE6A-781F-43CC-8272-DBAE3536DCB5}"/>
+    <hyperlink ref="H19" r:id="rId10" xr:uid="{325CC734-5AF5-48F0-9FE9-C201E6069E27}"/>
     <hyperlink ref="D3" r:id="rId11" xr:uid="{60A13DDD-5FE6-448A-BBD1-33CA6A2653FD}"/>
-    <hyperlink ref="D5" r:id="rId12" xr:uid="{981FAE8D-ECE9-44A4-A96A-40E0A62AAA9E}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{CE6DDBF5-D3ED-4109-AAFF-CDB49406A143}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{3D5E2645-D486-4113-B692-34FB8448ADCE}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{93B86B8C-FDA6-4F5E-BD4A-F762CADE9298}"/>
-    <hyperlink ref="D11" r:id="rId16" xr:uid="{8F6983D2-3857-4CCD-83E4-31EB17525F01}"/>
-    <hyperlink ref="D12" r:id="rId17" xr:uid="{D9F94308-B1B3-4557-AF30-0654725B62FC}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{771BDAC5-F197-4366-A42E-62DD8DFA64D5}"/>
-    <hyperlink ref="D16" r:id="rId19" xr:uid="{C4149631-3815-42DF-92FC-5FBEE2EC4007}"/>
-    <hyperlink ref="D18" r:id="rId20" xr:uid="{E7347A4D-3AE9-46A0-9B59-6C5CA2C69259}"/>
-    <hyperlink ref="D4" r:id="rId21" xr:uid="{CEE5D8E8-39ED-4646-B58B-16CD048BEB55}"/>
-    <hyperlink ref="D6" r:id="rId22" display="https://cdnimg.melon.co.kr/cm/artistcrop/images/000/51/893/51893_500.jpg?2681194781217524e6d0bf74b0560091/melon/resize/416/quality/80/optimize" xr:uid="{42CA190C-CF5F-4215-948A-A91967950499}"/>
-    <hyperlink ref="D8" r:id="rId23" display="https://cdnimg.melon.co.kr/cm2/artistcrop/images/029/05/108/2905108_20201201155113_500.jpg?1ae6098218e88aa59e235c89af5a8028/melon/resize/416/quality/80/optimize" xr:uid="{3D382182-A299-4776-A401-9F912B587F5C}"/>
-    <hyperlink ref="D13" r:id="rId24" display="http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/07/0400040907_16003_02656.gif" xr:uid="{E68D1C2B-E8A7-4265-B458-9A2A289BC047}"/>
-    <hyperlink ref="D15" r:id="rId25" xr:uid="{D7C6A0C0-D94E-45D8-B9E4-30C4B31BCC44}"/>
-    <hyperlink ref="D17" r:id="rId26" xr:uid="{93308FDE-FF1A-449F-B962-F8DBFD3AB5FB}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{981FAE8D-ECE9-44A4-A96A-40E0A62AAA9E}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{CE6DDBF5-D3ED-4109-AAFF-CDB49406A143}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{3D5E2645-D486-4113-B692-34FB8448ADCE}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{93B86B8C-FDA6-4F5E-BD4A-F762CADE9298}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{8F6983D2-3857-4CCD-83E4-31EB17525F01}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{D9F94308-B1B3-4557-AF30-0654725B62FC}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{771BDAC5-F197-4366-A42E-62DD8DFA64D5}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{C4149631-3815-42DF-92FC-5FBEE2EC4007}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{E7347A4D-3AE9-46A0-9B59-6C5CA2C69259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
